--- a/Lacourse.xlsx
+++ b/Lacourse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\Field\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Dropbox\Estatistica\Bioestatistica_usando_R\RMarkdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265B6E6-D4E3-4405-8933-55079A924C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7308AA2-E77B-458E-A4B1-4A1D09568353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>autoAlienacao</t>
   </si>
   <si>
-    <t>musicaIndireta</t>
+    <t>adoracao</t>
   </si>
   <si>
-    <t>adoracao</t>
+    <t>vicaria</t>
   </si>
 </sst>
 </file>
@@ -407,13 +407,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -454,10 +464,10 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
